--- a/MicrotasksReport.xlsx
+++ b/MicrotasksReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Explanations</t>
   </si>
   <si>
-    <t>C:\Users\Danilo\Documents\GitHub\crowd-debug-firefly\samples\main\java\com\netflix\nfgraph\util\OrdinalMap_buggy.java</t>
+    <t>OrdinalMap_buggy</t>
   </si>
   <si>
     <t>Is there maybe something wrong in the declaration of function 'growCapacity' at line 128 (e.g., requires a parameter that is not listed, needs different parameters to produce the correct result, specifies the wrong or no return type, etc .)?</t>
@@ -77,7 +77,7 @@
     <t>Is there perhaps something wrong with the values of the parameters received by function 'copyOf' when called by function 'growCapacity' at line 135 (e.g., wrong variables used as parameters, wrong order, missing or wrong type of parameter, values of the parameters are not checked, etc .)?</t>
   </si>
   <si>
-    <t>C:\Users\Danilo\Documents\GitHub\crowd-debug-firefly\samples\main\java\com\netflix\nfgraph\compressor\CompactPropertyBuilder.java</t>
+    <t>CompactPropertyBuilder</t>
   </si>
   <si>
     <t>Is there maybe something wrong in the declaration of function 'buildProperty' at line 43 (e.g., requires a parameter that is not listed, needs different parameters to produce the correct result, specifies the wrong or no return type, etc .)?</t>
@@ -122,7 +122,7 @@
     <t>Is there perhaps something wrong with the values of the parameters received by function 'writeVInt' when called by function 'buildProperty' at line 50 (e.g., wrong variables used as parameters, wrong order, missing or wrong type of parameter, values of the parameters are not checked, etc .)?</t>
   </si>
   <si>
-    <t>C:\Users\Danilo\Documents\GitHub\crowd-debug-firefly\samples\main\java\com\netflix\nfgraph\util\ArrayIterator.java</t>
+    <t>ArrayIterator</t>
   </si>
   <si>
     <t>Is there maybe something wrong in the declaration of function 'hasNext' at line 43 (e.g., requires a parameter that is not listed, needs different parameters to produce the correct result, specifies the wrong or no return type, etc .)?</t>
@@ -177,71 +177,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -366,9 +303,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="114.828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.09375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="2.7578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="117.1875" customWidth="true"/>
+    <col min="3" max="3" width="117.1875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="58.59375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -382,20 +321,20 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
@@ -406,13 +345,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -423,13 +362,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>2.0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
@@ -440,13 +379,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>3.0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
@@ -457,13 +396,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>4.0</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
@@ -474,57 +413,57 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>5.0</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>6.0</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>7.0</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>8.0</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>9.0</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -541,9 +480,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="127.43359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.09375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="2.7578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="117.1875" customWidth="true"/>
+    <col min="3" max="3" width="117.1875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="58.59375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,20 +498,20 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
@@ -581,13 +522,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
@@ -598,13 +539,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="n">
         <v>2.0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
@@ -613,13 +554,13 @@
       <c r="E4"/>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="s">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>3.0</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
@@ -630,13 +571,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="s">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="n">
         <v>4.0</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
@@ -647,46 +588,46 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="31" t="s">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>5.0</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="33" t="s">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>7.0</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="35" t="s">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="n">
         <v>6.0</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="37" t="s">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>8.0</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -703,9 +644,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="109.390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.7265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="2.7578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="117.1875" customWidth="true"/>
+    <col min="3" max="3" width="117.1875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="58.59375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -726,13 +669,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D2" t="s">
@@ -743,13 +686,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D3" t="s">

--- a/MicrotasksReport.xlsx
+++ b/MicrotasksReport.xlsx
@@ -26,7 +26,7 @@
     <t>Questions</t>
   </si>
   <si>
-    <t>Answers - options</t>
+    <t>Answers</t>
   </si>
   <si>
     <t>ArrayIterator</t>

--- a/MicrotasksReport.xlsx
+++ b/MicrotasksReport.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" r:id="rId3" sheetId="1"/>
-    <sheet name="growCapacity" r:id="rId4" sheetId="2"/>
-    <sheet name="hasNext" r:id="rId5" sheetId="3"/>
+    <sheet name="hasNext" r:id="rId4" sheetId="2"/>
+    <sheet name="buildBitSetData" r:id="rId5" sheetId="3"/>
+    <sheet name="add" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>File Name</t>
   </si>
@@ -28,70 +29,70 @@
     <t>Answers - options</t>
   </si>
   <si>
-    <t>Explanations</t>
+    <t>ArrayIterator</t>
+  </si>
+  <si>
+    <t>Is there maybe something wrong in the declaration of function 'hasNext' at line 43 (e.g., requires a parameter that is not listed, needs different parameters to produce the correct result, specifies the wrong or no return type, etc .)?</t>
+  </si>
+  <si>
+    <t>Is there possibly something wrong with the body of function 'hasNext' between lines 43 and 45 (e.g., function produces an incorrect return value, return statement is at the wrong place, does not properly handle error situations, etc.)?</t>
+  </si>
+  <si>
+    <t>BitSetPropertyBuilder_buggy</t>
+  </si>
+  <si>
+    <t>Is there maybe something wrong in the declaration of function 'buildBitSetData' at line 48 (e.g., requires a parameter that is not listed, needs different parameters to produce the correct result, specifies the wrong or no return type, etc .)?</t>
+  </si>
+  <si>
+    <t>Is there possibly something wrong with the body of function 'buildBitSetData' between lines 48 and 60 (e.g., function produces an incorrect return value, return statement is at the wrong place, does not properly handle error situations, etc.)?</t>
+  </si>
+  <si>
+    <t>Is there maybe something wrong with the invocation of function 'nextOrdinal' in function 'buildBitSetData' at line 52 (e.g., should be at a different place in the code, should invoke a different function, has unanticipated side effects, return value is improperly used, etc.)</t>
+  </si>
+  <si>
+    <t>Is the body of the 'While-loop' between lines 54 and 57 possibly not producing what it is supposed to (e.g., does not compute the expected result, does not exit at the expected iteration, etc.)?</t>
+  </si>
+  <si>
+    <t>Is there maybe something wrong with the 'While-loop' construct at line 54 (e.g., incorrect initialization, wrong counter increment, wrong exit condition, etc.)?</t>
+  </si>
+  <si>
+    <t>Is there maybe something wrong with the invocation of function 'nextOrdinal' in function 'buildBitSetData' at line 56 (e.g., should be at a different place in the code, should invoke a different function, has unanticipated side effects, return value is improperly used, etc.)</t>
   </si>
   <si>
     <t>OrdinalMap_buggy</t>
   </si>
   <si>
-    <t>Is there maybe something wrong in the declaration of function 'growCapacity' at line 128 (e.g., requires a parameter that is not listed, needs different parameters to produce the correct result, specifies the wrong or no return type, etc .)?</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>wrong initialization</t>
-  </si>
-  <si>
-    <t>Is there possibly something wrong with the body of function 'growCapacity' between lines 128 and 137 (e.g., function produces an incorrect return value, return statement is at the wrong place, does not properly handle error situations, etc.)?</t>
-  </si>
-  <si>
-    <t>method copyOf wrong.</t>
-  </si>
-  <si>
-    <t>Is there maybe something wrong with the invocation of function 'newHashedOrdinalArray' in function 'growCapacity' at line 129 (e.g., should be at a different place in the code, should invoke a different function, has unanticipated side effects, return value is improperly used, etc.)</t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>Is there perhaps something wrong with the values of the parameters received by function 'newHashedOrdinalArray' when called by function 'growCapacity' at line 129 (e.g., wrong variables used as parameters, wrong order, missing or wrong type of parameter, values of the parameters are not checked, etc .)?</t>
-  </si>
-  <si>
-    <t>Is there maybe something wrong with the 'For-loop' construct at line 131 (e.g., incorrect initialization, wrong counter increment, wrong exit condition, etc.)?</t>
-  </si>
-  <si>
-    <t>Is the body of the 'For-loop' between lines 131 and 133 possibly not producing what it is supposed to (e.g., does not compute the expected result, does not exit at the expected iteration, etc.)?</t>
-  </si>
-  <si>
-    <t>Is there maybe something wrong with the invocation of function 'hashOrdinalIntoArray' in function 'growCapacity' at line 132 (e.g., should be at a different place in the code, should invoke a different function, has unanticipated side effects, return value is improperly used, etc.)</t>
-  </si>
-  <si>
-    <t>Is there perhaps something wrong with the values of the parameters received by function 'hashOrdinalIntoArray' when called by function 'growCapacity' at line 132 (e.g., wrong variables used as parameters, wrong order, missing or wrong type of parameter, values of the parameters are not checked, etc .)?</t>
-  </si>
-  <si>
-    <t>Is there maybe something wrong with the invocation of function 'copyOf' in function 'growCapacity' at line 135 (e.g., should be at a different place in the code, should invoke a different function, has unanticipated side effects, return value is improperly used, etc.)</t>
-  </si>
-  <si>
-    <t>Is there perhaps something wrong with the values of the parameters received by function 'copyOf' when called by function 'growCapacity' at line 135 (e.g., wrong variables used as parameters, wrong order, missing or wrong type of parameter, values of the parameters are not checked, etc .)?</t>
-  </si>
-  <si>
-    <t>ArrayIterator</t>
-  </si>
-  <si>
-    <t>Is there maybe something wrong in the declaration of function 'hasNext' at line 43 (e.g., requires a parameter that is not listed, needs different parameters to produce the correct result, specifies the wrong or no return type, etc .)?</t>
-  </si>
-  <si>
-    <t>PROBABLY_YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size&gt;counter ? </t>
-  </si>
-  <si>
-    <t>Is there possibly something wrong with the body of function 'hasNext' between lines 43 and 45 (e.g., function produces an incorrect return value, return statement is at the wrong place, does not properly handle error situations, etc.)?</t>
-  </si>
-  <si>
-    <t>counter wrong??</t>
+    <t>Is there maybe something wrong in the declaration of function 'add' at line 77 (e.g., requires a parameter that is not listed, needs different parameters to produce the correct result, specifies the wrong or no return type, etc .)?</t>
+  </si>
+  <si>
+    <t>Is there possibly something wrong with the body of function 'add' between lines 77 and 89 (e.g., function produces an incorrect return value, return statement is at the wrong place, does not properly handle error situations, etc.)?</t>
+  </si>
+  <si>
+    <t>Is there maybe something wrong with the invocation of function 'get' in function 'add' at line 78 (e.g., should be at a different place in the code, should invoke a different function, has unanticipated side effects, return value is improperly used, etc.)</t>
+  </si>
+  <si>
+    <t>Is there perhaps something wrong with the values of the parameters received by function 'get' when called by function 'add' at line 78 (e.g., wrong variables used as parameters, wrong order, missing or wrong type of parameter, values of the parameters are not checked, etc .)?</t>
+  </si>
+  <si>
+    <t>Is it possible that the conditional clause at line 79 has problems (e.g., wrong Boolean operator, wrong comparison, misplaced parentheses, etc.)?</t>
+  </si>
+  <si>
+    <t>Is there maybe something wrong with the body of the conditional clause at line 80 (e.g., enters the wrong branch, makes a call to a null pointer, calls a wrong type, etc.)?</t>
+  </si>
+  <si>
+    <t>Is it possible that the conditional clause at line 82 has problems (e.g., wrong Boolean operator, wrong comparison, misplaced parentheses, etc.)?</t>
+  </si>
+  <si>
+    <t>Is there maybe something wrong with the body of the conditional clause at line 83 (e.g., enters the wrong branch, makes a call to a null pointer, calls a wrong type, etc.)?</t>
+  </si>
+  <si>
+    <t>Is there maybe something wrong with the invocation of function 'growCapacity' in function 'add' at line 83 (e.g., should be at a different place in the code, should invoke a different function, has unanticipated side effects, return value is improperly used, etc.)</t>
+  </si>
+  <si>
+    <t>Is there maybe something wrong with the invocation of function 'hashOrdinalIntoArray' in function 'add' at line 86 (e.g., should be at a different place in the code, should invoke a different function, has unanticipated side effects, return value is improperly used, etc.)</t>
+  </si>
+  <si>
+    <t>Is there perhaps something wrong with the values of the parameters received by function 'hashOrdinalIntoArray' when called by function 'add' at line 86 (e.g., wrong variables used as parameters, wrong order, missing or wrong type of parameter, values of the parameters are not checked, etc .)?</t>
   </si>
   <si>
     <t xml:space="preserve">Number of files: </t>
@@ -140,8 +141,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -199,7 +221,7 @@
         <v>26</v>
       </c>
       <c r="B1" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="2">
@@ -207,7 +229,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +237,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="4">
@@ -223,7 +245,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -232,6 +254,158 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="2.7578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="117.1875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="26.80078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="2.7578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="117.1875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -242,8 +416,6 @@
     <col min="1" max="1" width="18.09375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="3.078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="117.1875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="58.59375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -259,204 +431,125 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4"/>
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>4.0</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>16</v>
+        <v>6.0</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>8.0</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="2.7578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="117.1875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="58.59375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="12" t="s">
+        <v>9.0</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>25</v>
       </c>
     </row>
